--- a/ConceptMap-R5-ConditionDefinition-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ConditionDefinition-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:31.8175762-06:00</t>
+    <t>2026-02-09T22:05:43.6843499-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -372,9 +372,6 @@
     <t>observation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:observation</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation</t>
   </si>
   <si>
@@ -384,18 +381,12 @@
     <t>category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:observation:category</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation:category</t>
   </si>
   <si>
     <t>ConditionDefinition.observation.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:observation:code</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation:code</t>
   </si>
   <si>
@@ -405,27 +396,18 @@
     <t>medication</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:medication</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication</t>
   </si>
   <si>
     <t>ConditionDefinition.medication.category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:medication:category</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication:category</t>
   </si>
   <si>
     <t>ConditionDefinition.medication.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:medication:code</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication:code</t>
   </si>
   <si>
@@ -435,9 +417,6 @@
     <t>precondition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:precondition</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition</t>
   </si>
   <si>
@@ -447,18 +426,12 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:precondition:type</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:type</t>
   </si>
   <si>
     <t>ConditionDefinition.precondition.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:precondition:code</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:code</t>
   </si>
   <si>
@@ -468,9 +441,6 @@
     <t>value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:precondition:value</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:value</t>
   </si>
   <si>
@@ -489,9 +459,6 @@
     <t>questionnaire</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:questionnaire</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire</t>
   </si>
   <si>
@@ -501,9 +468,6 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:questionnaire:purpose</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire:purpose</t>
   </si>
   <si>
@@ -513,9 +477,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:questionnaire:reference</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire:reference</t>
   </si>
   <si>
@@ -525,9 +486,6 @@
     <t>plan</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:plan</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan</t>
   </si>
   <si>
@@ -537,16 +495,10 @@
     <t>role</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:plan:role</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan:role</t>
   </si>
   <si>
     <t>ConditionDefinition.plan.reference</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:plan:reference</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan:reference</t>
@@ -806,7 +758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1236,419 +1188,211 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>94</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B51" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B53" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="E64" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-ConditionDefinition-elements-for-R4.xlsx
+++ b/ConceptMap-R5-ConditionDefinition-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.6843499-06:00</t>
+    <t>2026-02-17T14:42:27.1067034-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:url</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.url</t>
   </si>
   <si>
     <t>ConditionDefinition.identifier</t>
@@ -183,7 +183,7 @@
     <t>version</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:version</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.version</t>
   </si>
   <si>
     <t>ConditionDefinition.versionAlgorithm[x]</t>
@@ -192,7 +192,7 @@
     <t>versionAlgorithm[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:versionAlgorithm</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.versionAlgorithm</t>
   </si>
   <si>
     <t>ConditionDefinition.name</t>
@@ -201,7 +201,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:name</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.name</t>
   </si>
   <si>
     <t>ConditionDefinition.title</t>
@@ -210,7 +210,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:title</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.title</t>
   </si>
   <si>
     <t>ConditionDefinition.subtitle</t>
@@ -219,7 +219,7 @@
     <t>subtitle</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:subtitle</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.subtitle</t>
   </si>
   <si>
     <t>ConditionDefinition.status</t>
@@ -228,7 +228,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.status</t>
   </si>
   <si>
     <t>ConditionDefinition.experimental</t>
@@ -237,7 +237,7 @@
     <t>experimental</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:experimental</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.experimental</t>
   </si>
   <si>
     <t>ConditionDefinition.date</t>
@@ -246,7 +246,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:date</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.date</t>
   </si>
   <si>
     <t>ConditionDefinition.publisher</t>
@@ -255,7 +255,7 @@
     <t>publisher</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:publisher</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.publisher</t>
   </si>
   <si>
     <t>ConditionDefinition.contact</t>
@@ -264,7 +264,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:contact</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.contact</t>
   </si>
   <si>
     <t>ConditionDefinition.description</t>
@@ -273,7 +273,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:description</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.description</t>
   </si>
   <si>
     <t>ConditionDefinition.useContext</t>
@@ -282,7 +282,7 @@
     <t>useContext</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:useContext</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.useContext</t>
   </si>
   <si>
     <t>ConditionDefinition.jurisdiction</t>
@@ -291,7 +291,7 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:jurisdiction</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.jurisdiction</t>
   </si>
   <si>
     <t>ConditionDefinition.code</t>
@@ -300,7 +300,7 @@
     <t>code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.code</t>
   </si>
   <si>
     <t>ConditionDefinition.severity</t>
@@ -309,7 +309,7 @@
     <t>severity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:severity</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.severity</t>
   </si>
   <si>
     <t>ConditionDefinition.bodySite</t>
@@ -318,7 +318,7 @@
     <t>bodySite</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:bodySite</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.bodySite</t>
   </si>
   <si>
     <t>ConditionDefinition.stage</t>
@@ -327,7 +327,7 @@
     <t>stage</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:stage</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.stage</t>
   </si>
   <si>
     <t>ConditionDefinition.hasSeverity</t>
@@ -336,7 +336,7 @@
     <t>hasSeverity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:hasSeverity</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.hasSeverity</t>
   </si>
   <si>
     <t>ConditionDefinition.hasBodySite</t>
@@ -345,7 +345,7 @@
     <t>hasBodySite</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:hasBodySite</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.hasBodySite</t>
   </si>
   <si>
     <t>ConditionDefinition.hasStage</t>
@@ -354,7 +354,7 @@
     <t>hasStage</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:hasStage</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.hasStage</t>
   </si>
   <si>
     <t>ConditionDefinition.definition</t>
@@ -363,7 +363,7 @@
     <t>definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:definition</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.definition</t>
   </si>
   <si>
     <t>ConditionDefinition.observation</t>
@@ -381,13 +381,13 @@
     <t>category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation:category</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation.category</t>
   </si>
   <si>
     <t>ConditionDefinition.observation.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.observation.code</t>
   </si>
   <si>
     <t>ConditionDefinition.medication</t>
@@ -402,13 +402,13 @@
     <t>ConditionDefinition.medication.category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication:category</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication.category</t>
   </si>
   <si>
     <t>ConditionDefinition.medication.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.medication.code</t>
   </si>
   <si>
     <t>ConditionDefinition.precondition</t>
@@ -426,13 +426,13 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition.type</t>
   </si>
   <si>
     <t>ConditionDefinition.precondition.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:code</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition.code</t>
   </si>
   <si>
     <t>ConditionDefinition.precondition.value[x]</t>
@@ -441,7 +441,7 @@
     <t>value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:value</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.precondition.value</t>
   </si>
   <si>
     <t>ConditionDefinition.team</t>
@@ -450,7 +450,7 @@
     <t>team</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:team</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.team</t>
   </si>
   <si>
     <t>ConditionDefinition.questionnaire</t>
@@ -468,7 +468,7 @@
     <t>purpose</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire:purpose</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire.purpose</t>
   </si>
   <si>
     <t>ConditionDefinition.questionnaire.reference</t>
@@ -477,7 +477,7 @@
     <t>reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire:reference</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.questionnaire.reference</t>
   </si>
   <si>
     <t>ConditionDefinition.plan</t>
@@ -495,13 +495,13 @@
     <t>role</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan:role</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan.role</t>
   </si>
   <si>
     <t>ConditionDefinition.plan.reference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan:reference</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan:http://hl7.org/fhir/5.0/StructureDefinition/extension-ConditionDefinition.plan.reference</t>
   </si>
 </sst>
 </file>
